--- a/evaluation/chat_eval.xlsx
+++ b/evaluation/chat_eval.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/wwong029_e_ntu_edu_sg/Documents/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/wwong029_e_ntu_edu_sg/Documents/FYP/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="409" documentId="8_{E56AEEF5-30C4-4704-A9AB-4CF248B4A332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D12ECD3C-7FFE-436A-9ABC-CA910077ACD8}"/>
+  <xr:revisionPtr revIDLastSave="414" documentId="8_{E56AEEF5-30C4-4704-A9AB-4CF248B4A332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38E469DE-0A30-46F0-9D63-57A22DDEE399}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{03D946F4-62DA-4CF3-8F5D-CF2B55ED50D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{03D946F4-62DA-4CF3-8F5D-CF2B55ED50D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -903,12 +903,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,10 +924,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1250,23 +1245,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7BE48D-BCB7-4974-9E3D-0F89D985931D}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="156.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="156.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1286,7 +1281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1303,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1319,13 +1314,13 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -1335,7 +1330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1351,14 +1346,14 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f>COUNTIF(E2:E11,1)</f>
         <v>10</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <f>COUNTIF(E2:E11,1)/COUNT(E2:E11)</f>
         <v>1</v>
       </c>
@@ -1369,7 +1364,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1385,14 +1380,14 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>30</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f>COUNTIF(E12:E21,1)</f>
         <v>9</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <f>COUNTIF(E12:E21,1)/COUNT(E12:E21)</f>
         <v>0.9</v>
       </c>
@@ -1403,7 +1398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1419,14 +1414,14 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>52</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f>COUNTIF(E22:E31,1)</f>
         <v>9</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <f>COUNTIF(E22:E31,1)/COUNT(E22:E31)</f>
         <v>0.9</v>
       </c>
@@ -1437,7 +1432,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1453,14 +1448,14 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>76</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f>COUNTIF(E32:E41,1)</f>
         <v>9</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <f>COUNTIF(E32:E41,1)/COUNT(E32:E41)</f>
         <v>0.9</v>
       </c>
@@ -1471,7 +1466,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1487,14 +1482,14 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>96</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f>COUNTIF(E42:E51,1)</f>
         <v>7</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <f>COUNTIF(E42:E51,1)/COUNT(E42:E51)</f>
         <v>0.7</v>
       </c>
@@ -1505,7 +1500,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1521,14 +1516,14 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>120</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f>COUNTIF(E52:E61,1)</f>
         <v>10</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <f>COUNTIF(E52:E61,1)/COUNT(E52:E61)</f>
         <v>1</v>
       </c>
@@ -1539,7 +1534,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1555,19 +1550,19 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I10" s="1">
-        <f>SUM(I4:I9)</f>
+      <c r="J10" s="1">
+        <f>SUM(J4:J9)</f>
         <v>54</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <f>COUNTIF(E2:E61,1)/COUNT(E2:E61)</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1584,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1601,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1618,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1635,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1655,7 +1650,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1672,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1689,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1706,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1723,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1740,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1757,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1774,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1791,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1808,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1825,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1842,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1859,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1876,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1893,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1910,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1930,7 +1925,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1947,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1964,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1981,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1998,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2015,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2032,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2049,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2066,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2086,7 +2081,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2103,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2120,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2137,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2157,7 +2152,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2174,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2191,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2201,7 +2196,7 @@
       <c r="C47" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>111</v>
       </c>
       <c r="E47">
@@ -2211,7 +2206,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2231,7 +2226,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2248,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2265,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2282,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2299,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2316,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2333,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2350,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2367,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2384,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2401,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2418,7 +2413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2435,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
